--- a/tabular/contributed/190612 OBV TABLE.xlsx
+++ b/tabular/contributed/190612 OBV TABLE.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="460" windowWidth="41640" windowHeight="28240"/>
+    <workbookView xWindow="8200" yWindow="560" windowWidth="41640" windowHeight="28240"/>
   </bookViews>
   <sheets>
     <sheet name="OBV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="214">
   <si>
     <t>gene</t>
   </si>
@@ -104,96 +104,39 @@
     <t>non cirrhotic; TN</t>
   </si>
   <si>
-    <t>Y93N</t>
-  </si>
-  <si>
     <t>1b</t>
   </si>
   <si>
     <t>L31M</t>
   </si>
   <si>
-    <t>Q30R</t>
-  </si>
-  <si>
-    <t>L31V</t>
-  </si>
-  <si>
-    <t>L31F</t>
-  </si>
-  <si>
-    <t>H58D</t>
-  </si>
-  <si>
     <t>Y93H</t>
   </si>
   <si>
-    <t>Y93C</t>
-  </si>
-  <si>
-    <t>L28M</t>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
-    <t>M28T</t>
-  </si>
-  <si>
-    <t>Q30H</t>
-  </si>
-  <si>
-    <t>L31V+Y93H</t>
-  </si>
-  <si>
-    <t>Y93S</t>
-  </si>
-  <si>
     <t>vivo</t>
   </si>
   <si>
-    <t>L31I</t>
-  </si>
-  <si>
-    <t>Q30L+Y93H</t>
-  </si>
-  <si>
     <t>4a</t>
   </si>
   <si>
-    <t>M28T+Q30R</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>2a</t>
   </si>
   <si>
-    <t>F28S</t>
-  </si>
-  <si>
     <t>2b</t>
   </si>
   <si>
-    <t>L31F+Y93H</t>
-  </si>
-  <si>
     <t>5a</t>
   </si>
   <si>
     <t>6a</t>
   </si>
   <si>
-    <t>L28M+Y93H</t>
-  </si>
-  <si>
-    <t>L28T</t>
-  </si>
-  <si>
-    <t>4 no ST</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -206,18 +149,12 @@
     <t>case report</t>
   </si>
   <si>
-    <t>L28A</t>
-  </si>
-  <si>
     <t>vitro</t>
   </si>
   <si>
     <t>1720</t>
   </si>
   <si>
-    <t>L28F</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -227,72 +164,39 @@
     <t>1483</t>
   </si>
   <si>
-    <t>L28V</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
     <t>108</t>
   </si>
   <si>
-    <t>T93I</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
-    <t>T93S</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
-    <t>L28T+R30S</t>
-  </si>
-  <si>
     <t>1746</t>
   </si>
   <si>
-    <t>L28V+R30S</t>
-  </si>
-  <si>
     <t>9.5</t>
   </si>
   <si>
-    <t>L28V+R30T</t>
-  </si>
-  <si>
     <t>2.9</t>
   </si>
   <si>
-    <t>L28T+L31I</t>
-  </si>
-  <si>
-    <t>L28V+R30S+T93S</t>
-  </si>
-  <si>
     <t>174</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>T58A</t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
-    <t>T58S</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
-    <t>L28A+R30S</t>
-  </si>
-  <si>
     <t>1121</t>
   </si>
   <si>
@@ -302,9 +206,6 @@
     <t>L31M+C92S</t>
   </si>
   <si>
-    <t>T24S</t>
-  </si>
-  <si>
     <t xml:space="preserve">L31M </t>
   </si>
   <si>
@@ -353,9 +254,6 @@
     <t>416</t>
   </si>
   <si>
-    <t>Q30L+Y93S</t>
-  </si>
-  <si>
     <t>218</t>
   </si>
   <si>
@@ -374,30 +272,18 @@
     <t>77</t>
   </si>
   <si>
-    <t>L28M+L31F</t>
-  </si>
-  <si>
     <t>569</t>
   </si>
   <si>
-    <t>L28V+L31F</t>
-  </si>
-  <si>
     <t>2170</t>
   </si>
   <si>
-    <t>L31F+P58L</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
     <t>415</t>
   </si>
   <si>
-    <t>R30Q+Y93H</t>
-  </si>
-  <si>
     <t>284</t>
   </si>
   <si>
@@ -407,21 +293,12 @@
     <t>12328</t>
   </si>
   <si>
-    <t>P58A+Y93H</t>
-  </si>
-  <si>
     <t>1226</t>
   </si>
   <si>
-    <t>P58L+Y93H</t>
-  </si>
-  <si>
     <t>135</t>
   </si>
   <si>
-    <t xml:space="preserve">T24A </t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -431,9 +308,6 @@
     <t>47</t>
   </si>
   <si>
-    <t>L28F+L31M</t>
-  </si>
-  <si>
     <t>247</t>
   </si>
   <si>
@@ -452,9 +326,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>L28I</t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
@@ -464,36 +335,18 @@
     <t>68</t>
   </si>
   <si>
-    <t>T58N</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>M28T+H58P</t>
-  </si>
-  <si>
-    <t>Y9SN</t>
-  </si>
-  <si>
-    <t>M28V+Q30K</t>
-  </si>
-  <si>
     <t>non cirrhotic; TN and TE</t>
   </si>
   <si>
     <t>AVIATOR</t>
   </si>
   <si>
-    <t>P58S</t>
-  </si>
-  <si>
-    <t>P58S+Y93H</t>
-  </si>
-  <si>
     <t xml:space="preserve">PrO </t>
   </si>
   <si>
@@ -509,51 +362,21 @@
     <t>310</t>
   </si>
   <si>
-    <t>M31I</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>L28V+T58S</t>
-  </si>
-  <si>
     <t>760</t>
   </si>
   <si>
     <t>T58P</t>
   </si>
   <si>
-    <t>L28S+M31I</t>
-  </si>
-  <si>
     <t>TN; non cirrhotic</t>
   </si>
   <si>
     <t>L28M+R30Q</t>
   </si>
   <si>
-    <t xml:space="preserve">R30Q </t>
-  </si>
-  <si>
-    <t>A92M+Y93H</t>
-  </si>
-  <si>
-    <t>A92T+Y93H</t>
-  </si>
-  <si>
-    <t>A92V+Y93H</t>
-  </si>
-  <si>
-    <t>L28M+R30Q+Y93H</t>
-  </si>
-  <si>
-    <t>L31M+Y93H</t>
-  </si>
-  <si>
-    <t>A92E+Y93H</t>
-  </si>
-  <si>
     <t>A92E</t>
   </si>
   <si>
@@ -563,9 +386,6 @@
     <t>TN&amp;TE: non cirrhotic and cirrhotic</t>
   </si>
   <si>
-    <t>L31F+A92E</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -587,30 +407,18 @@
     <t>GARNET</t>
   </si>
   <si>
-    <t>Y93L</t>
-  </si>
-  <si>
     <t>TN &amp; TE; noncirrhotic and cirrhotic</t>
   </si>
   <si>
     <t>PrOD +/- RBV</t>
   </si>
   <si>
-    <t>M28V+Q30R</t>
-  </si>
-  <si>
     <t>PrOD+RBV</t>
   </si>
   <si>
     <t>TE, cirrhotic</t>
   </si>
   <si>
-    <t>Turquoise II</t>
-  </si>
-  <si>
-    <t>Q30E</t>
-  </si>
-  <si>
     <t>Sapphire II, Turquoise II, Pearl IV</t>
   </si>
   <si>
@@ -620,9 +428,6 @@
     <t>Sarrazin, EASL Paris, 23-24 Sep, 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">P58L </t>
-  </si>
-  <si>
     <t>P58L</t>
   </si>
   <si>
@@ -647,9 +452,6 @@
     <t xml:space="preserve">TE, cirrhotic </t>
   </si>
   <si>
-    <t>2 (no ST)</t>
-  </si>
-  <si>
     <t>TE, cirrhotic and noncirrhoitc</t>
   </si>
   <si>
@@ -665,15 +467,6 @@
     <t>20- &gt;100</t>
   </si>
   <si>
-    <t>NK</t>
-  </si>
-  <si>
-    <t>NS5a</t>
-  </si>
-  <si>
-    <t>Q30G</t>
-  </si>
-  <si>
     <t>PEARL IV</t>
   </si>
   <si>
@@ -686,10 +479,199 @@
     <t>TN; no cirrhosis</t>
   </si>
   <si>
-    <t>prev PR; cirrhosis</t>
-  </si>
-  <si>
     <t>Phase 2</t>
+  </si>
+  <si>
+    <t>28V</t>
+  </si>
+  <si>
+    <t>93C</t>
+  </si>
+  <si>
+    <t>28A</t>
+  </si>
+  <si>
+    <t>28F</t>
+  </si>
+  <si>
+    <t>28M</t>
+  </si>
+  <si>
+    <t>28T</t>
+  </si>
+  <si>
+    <t>31I</t>
+  </si>
+  <si>
+    <t>93I</t>
+  </si>
+  <si>
+    <t>93S</t>
+  </si>
+  <si>
+    <t>28T+30S</t>
+  </si>
+  <si>
+    <t>28V+30S</t>
+  </si>
+  <si>
+    <t>28V+30T</t>
+  </si>
+  <si>
+    <t>28T+31I</t>
+  </si>
+  <si>
+    <t>28V+30S+93S</t>
+  </si>
+  <si>
+    <t>31M</t>
+  </si>
+  <si>
+    <t>58A</t>
+  </si>
+  <si>
+    <t>58S</t>
+  </si>
+  <si>
+    <t>28A+30S</t>
+  </si>
+  <si>
+    <t>24S</t>
+  </si>
+  <si>
+    <t>28S</t>
+  </si>
+  <si>
+    <t>93H</t>
+  </si>
+  <si>
+    <t>30R</t>
+  </si>
+  <si>
+    <t>58D</t>
+  </si>
+  <si>
+    <t>93N</t>
+  </si>
+  <si>
+    <t>30H</t>
+  </si>
+  <si>
+    <t>30L+93H</t>
+  </si>
+  <si>
+    <t>30L+93S</t>
+  </si>
+  <si>
+    <t>31F</t>
+  </si>
+  <si>
+    <t>31V</t>
+  </si>
+  <si>
+    <t>28M+31F</t>
+  </si>
+  <si>
+    <t>28V+31F</t>
+  </si>
+  <si>
+    <t>31F+58L</t>
+  </si>
+  <si>
+    <t>28M+93H</t>
+  </si>
+  <si>
+    <t>30Q+93H</t>
+  </si>
+  <si>
+    <t>31F+93H</t>
+  </si>
+  <si>
+    <t>31V+93H</t>
+  </si>
+  <si>
+    <t>58A+93H</t>
+  </si>
+  <si>
+    <t>58L+93H</t>
+  </si>
+  <si>
+    <t>24A</t>
+  </si>
+  <si>
+    <t>28F+31M</t>
+  </si>
+  <si>
+    <t>28I</t>
+  </si>
+  <si>
+    <t>58N</t>
+  </si>
+  <si>
+    <t>28T+58P</t>
+  </si>
+  <si>
+    <t>9SN</t>
+  </si>
+  <si>
+    <t>28V+30K</t>
+  </si>
+  <si>
+    <t>28T+30R</t>
+  </si>
+  <si>
+    <t>58S+93H</t>
+  </si>
+  <si>
+    <t>28V+58S</t>
+  </si>
+  <si>
+    <t>58P</t>
+  </si>
+  <si>
+    <t>28S+31I</t>
+  </si>
+  <si>
+    <t>28M+30Q</t>
+  </si>
+  <si>
+    <t>30Q</t>
+  </si>
+  <si>
+    <t>92M+93H</t>
+  </si>
+  <si>
+    <t>92T+93H</t>
+  </si>
+  <si>
+    <t>92V+93H</t>
+  </si>
+  <si>
+    <t>28M+30Q+93H</t>
+  </si>
+  <si>
+    <t>31M+93H</t>
+  </si>
+  <si>
+    <t>92E+93H</t>
+  </si>
+  <si>
+    <t>31F+92E</t>
+  </si>
+  <si>
+    <t>93L</t>
+  </si>
+  <si>
+    <t>30E</t>
+  </si>
+  <si>
+    <t>28V+30R</t>
+  </si>
+  <si>
+    <t>58L</t>
+  </si>
+  <si>
+    <t>30G</t>
   </si>
 </sst>
 </file>
@@ -1130,18 +1112,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126:H130"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="7"/>
-    <col min="2" max="2" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" style="7" customWidth="1"/>
@@ -1163,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1214,39 +1196,39 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>150</v>
+      </c>
+      <c r="C2" s="8">
+        <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="O2" s="10">
         <v>30882744</v>
@@ -1259,35 +1241,35 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>151</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -1302,20 +1284,20 @@
         <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
@@ -1333,20 +1315,20 @@
         <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
@@ -1364,20 +1346,20 @@
         <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
@@ -1395,20 +1377,20 @@
         <v>16</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
@@ -1426,20 +1408,20 @@
         <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
@@ -1457,20 +1439,20 @@
         <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
@@ -1488,20 +1470,20 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
@@ -1519,20 +1501,20 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
@@ -1550,20 +1532,20 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
@@ -1581,20 +1563,20 @@
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
@@ -1612,20 +1594,20 @@
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
@@ -1643,20 +1625,20 @@
         <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9"/>
@@ -1674,20 +1656,20 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
@@ -1705,20 +1687,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9"/>
@@ -1736,20 +1718,20 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
@@ -1767,20 +1749,20 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
@@ -1798,20 +1780,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
@@ -1829,10 +1811,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>19</v>
@@ -1845,17 +1827,17 @@
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="8" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="O21" s="11">
         <v>30485638</v>
@@ -1868,10 +1850,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>20</v>
@@ -1880,21 +1862,21 @@
         <v>19</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="8" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
@@ -1909,10 +1891,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>20</v>
@@ -1921,21 +1903,21 @@
         <v>19</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="8" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -1950,10 +1932,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>20</v>
@@ -1966,19 +1948,19 @@
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="O24" s="11">
         <v>29575060</v>
@@ -1991,10 +1973,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>20</v>
@@ -2007,14 +1989,14 @@
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="8" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>23</v>
@@ -2031,10 +2013,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>20</v>
@@ -2047,14 +2029,14 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="8" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>23</v>
@@ -2071,20 +2053,20 @@
         <v>16</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2102,20 +2084,20 @@
         <v>16</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2133,20 +2115,20 @@
         <v>16</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2164,20 +2146,20 @@
         <v>16</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2195,20 +2177,20 @@
         <v>16</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2226,20 +2208,20 @@
         <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2257,20 +2239,20 @@
         <v>16</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2288,20 +2270,20 @@
         <v>16</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2319,20 +2301,20 @@
         <v>16</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2350,20 +2332,20 @@
         <v>16</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2381,20 +2363,20 @@
         <v>16</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -2412,20 +2394,20 @@
         <v>16</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2443,20 +2425,20 @@
         <v>16</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2474,20 +2456,20 @@
         <v>16</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2505,20 +2487,20 @@
         <v>16</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2536,20 +2518,20 @@
         <v>16</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2567,20 +2549,20 @@
         <v>16</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2598,20 +2580,20 @@
         <v>16</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2629,20 +2611,20 @@
         <v>16</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2660,20 +2642,20 @@
         <v>16</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2691,20 +2673,20 @@
         <v>16</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -2722,20 +2704,20 @@
         <v>16</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2753,20 +2735,20 @@
         <v>16</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2784,20 +2766,20 @@
         <v>16</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2815,20 +2797,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2846,20 +2828,20 @@
         <v>16</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2877,20 +2859,20 @@
         <v>16</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2908,20 +2890,20 @@
         <v>16</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -2939,20 +2921,20 @@
         <v>16</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -2970,20 +2952,20 @@
         <v>16</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -3001,20 +2983,20 @@
         <v>16</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3032,20 +3014,20 @@
         <v>16</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3063,20 +3045,20 @@
         <v>16</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3094,20 +3076,20 @@
         <v>16</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3125,20 +3107,20 @@
         <v>16</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3156,20 +3138,20 @@
         <v>16</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3187,20 +3169,20 @@
         <v>16</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -3218,20 +3200,20 @@
         <v>16</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -3249,20 +3231,20 @@
         <v>16</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3280,20 +3262,20 @@
         <v>16</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3311,20 +3293,20 @@
         <v>16</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3342,20 +3324,20 @@
         <v>16</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3373,10 +3355,10 @@
         <v>16</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>19</v>
@@ -3389,17 +3371,17 @@
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -3414,10 +3396,10 @@
         <v>16</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>19</v>
@@ -3430,17 +3412,17 @@
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
@@ -3455,10 +3437,10 @@
         <v>16</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>19</v>
@@ -3471,17 +3453,17 @@
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
@@ -3496,10 +3478,10 @@
         <v>16</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>20</v>
@@ -3512,17 +3494,17 @@
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
@@ -3537,10 +3519,10 @@
         <v>16</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>19</v>
@@ -3553,17 +3535,17 @@
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -3578,10 +3560,10 @@
         <v>16</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>20</v>
@@ -3594,17 +3576,17 @@
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
@@ -3619,10 +3601,10 @@
         <v>16</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>20</v>
@@ -3635,17 +3617,17 @@
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
@@ -3660,10 +3642,10 @@
         <v>16</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>20</v>
@@ -3676,17 +3658,17 @@
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="8" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -3701,10 +3683,10 @@
         <v>16</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>19</v>
@@ -3717,17 +3699,17 @@
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
@@ -3741,10 +3723,10 @@
         <v>16</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>20</v>
@@ -3753,21 +3735,21 @@
         <v>19</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
@@ -3781,10 +3763,10 @@
         <v>16</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>19</v>
@@ -3797,17 +3779,17 @@
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
@@ -3821,10 +3803,10 @@
         <v>16</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>22</v>
@@ -3837,10 +3819,10 @@
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -3857,10 +3839,10 @@
         <v>16</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>22</v>
@@ -3873,10 +3855,10 @@
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -3893,10 +3875,10 @@
         <v>16</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>22</v>
@@ -3909,10 +3891,10 @@
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -3929,10 +3911,10 @@
         <v>16</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>22</v>
@@ -3945,10 +3927,10 @@
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -3965,10 +3947,10 @@
         <v>16</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>20</v>
@@ -3981,17 +3963,17 @@
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
@@ -4005,10 +3987,10 @@
         <v>16</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>19</v>
@@ -4021,17 +4003,17 @@
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
@@ -4045,10 +4027,10 @@
         <v>16</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>20</v>
@@ -4057,21 +4039,21 @@
         <v>19</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
@@ -4085,10 +4067,10 @@
         <v>16</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>19</v>
@@ -4101,17 +4083,17 @@
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
@@ -4125,10 +4107,10 @@
         <v>16</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>20</v>
@@ -4139,17 +4121,17 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
@@ -4163,10 +4145,10 @@
         <v>16</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>20</v>
@@ -4175,21 +4157,21 @@
         <v>19</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
@@ -4203,10 +4185,10 @@
         <v>16</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>19</v>
@@ -4217,17 +4199,17 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
@@ -4241,10 +4223,10 @@
         <v>16</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>19</v>
@@ -4255,17 +4237,17 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
@@ -4279,10 +4261,10 @@
         <v>16</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>20</v>
@@ -4291,21 +4273,21 @@
         <v>19</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
@@ -4319,10 +4301,10 @@
         <v>16</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>19</v>
@@ -4333,17 +4315,17 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
@@ -4357,10 +4339,10 @@
         <v>16</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>19</v>
@@ -4371,17 +4353,17 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
@@ -4395,10 +4377,10 @@
         <v>16</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>19</v>
@@ -4409,17 +4391,17 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
@@ -4433,10 +4415,10 @@
         <v>16</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>20</v>
@@ -4445,21 +4427,21 @@
         <v>19</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
@@ -4473,10 +4455,10 @@
         <v>16</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>19</v>
@@ -4487,17 +4469,17 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -4511,10 +4493,10 @@
         <v>16</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>19</v>
@@ -4525,17 +4507,17 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -4549,10 +4531,10 @@
         <v>16</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>20</v>
@@ -4561,21 +4543,21 @@
         <v>19</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
@@ -4589,10 +4571,10 @@
         <v>16</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>19</v>
@@ -4603,17 +4585,17 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
@@ -4627,10 +4609,10 @@
         <v>16</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>20</v>
@@ -4639,21 +4621,21 @@
         <v>19</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
@@ -4667,20 +4649,20 @@
         <v>16</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -4697,20 +4679,20 @@
         <v>16</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -4727,20 +4709,20 @@
         <v>16</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -4757,20 +4739,20 @@
         <v>16</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -4787,20 +4769,20 @@
         <v>16</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -4817,20 +4799,20 @@
         <v>16</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -4847,20 +4829,20 @@
         <v>16</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -4877,20 +4859,20 @@
         <v>16</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -4907,20 +4889,20 @@
         <v>16</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -4937,20 +4919,20 @@
         <v>16</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -4967,20 +4949,20 @@
         <v>16</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -4997,20 +4979,20 @@
         <v>16</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -5027,10 +5009,10 @@
         <v>16</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>19</v>
@@ -5043,17 +5025,17 @@
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="8" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
@@ -5067,10 +5049,10 @@
         <v>16</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>20</v>
@@ -5079,21 +5061,21 @@
         <v>19</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="8" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
@@ -5107,10 +5089,10 @@
         <v>16</v>
       </c>
       <c r="B116" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>19</v>
@@ -5121,24 +5103,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="M116" s="8"/>
       <c r="N116" s="8" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="P116" s="8"/>
     </row>
@@ -5147,10 +5129,10 @@
         <v>16</v>
       </c>
       <c r="B117" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>19</v>
@@ -5161,24 +5143,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="M117" s="8"/>
       <c r="N117" s="8" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="P117" s="8"/>
     </row>
@@ -5187,10 +5169,10 @@
         <v>16</v>
       </c>
       <c r="B118" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>19</v>
@@ -5201,24 +5183,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="M118" s="8"/>
       <c r="N118" s="8" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="P118" s="8"/>
     </row>
@@ -5227,10 +5209,10 @@
         <v>16</v>
       </c>
       <c r="B119" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>19</v>
@@ -5241,24 +5223,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="M119" s="8"/>
       <c r="N119" s="8" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="P119" s="8"/>
     </row>
@@ -5267,10 +5249,10 @@
         <v>16</v>
       </c>
       <c r="B120" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>19</v>
@@ -5281,24 +5263,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="M120" s="8"/>
       <c r="N120" s="8" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="P120" s="8"/>
     </row>
@@ -5307,10 +5289,10 @@
         <v>16</v>
       </c>
       <c r="B121" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>19</v>
@@ -5321,24 +5303,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="M121" s="8"/>
       <c r="N121" s="8" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="P121" s="8"/>
     </row>
@@ -5347,10 +5329,10 @@
         <v>16</v>
       </c>
       <c r="B122" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>19</v>
@@ -5361,24 +5343,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="M122" s="8"/>
       <c r="N122" s="8" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="P122" s="8"/>
     </row>
@@ -5387,10 +5369,10 @@
         <v>16</v>
       </c>
       <c r="B123" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>19</v>
@@ -5401,24 +5383,24 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="M123" s="8"/>
       <c r="N123" s="8" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="P123" s="8"/>
     </row>
@@ -5427,10 +5409,10 @@
         <v>16</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>19</v>
@@ -5441,17 +5423,17 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="8" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
@@ -5465,10 +5447,10 @@
         <v>16</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>20</v>
@@ -5477,21 +5459,21 @@
         <v>19</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="8" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
@@ -5505,10 +5487,10 @@
         <v>16</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>20</v>
@@ -5519,17 +5501,17 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="8" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
@@ -5543,10 +5525,10 @@
         <v>16</v>
       </c>
       <c r="B127" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>20</v>
@@ -5557,17 +5539,17 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="8" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
@@ -5581,10 +5563,10 @@
         <v>16</v>
       </c>
       <c r="B128" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>20</v>
@@ -5595,17 +5577,17 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="8" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
@@ -5619,10 +5601,10 @@
         <v>16</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>20</v>
@@ -5633,17 +5615,17 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="8" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
@@ -5657,10 +5639,10 @@
         <v>16</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>61</v>
+        <v>153</v>
+      </c>
+      <c r="C130" s="8">
+        <v>2</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>20</v>
@@ -5671,17 +5653,17 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="8" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
@@ -5695,10 +5677,10 @@
         <v>16</v>
       </c>
       <c r="B131" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>20</v>
@@ -5709,14 +5691,14 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="8" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
@@ -5731,10 +5713,10 @@
         <v>16</v>
       </c>
       <c r="B132" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>20</v>
@@ -5745,14 +5727,14 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="8" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
@@ -5767,10 +5749,10 @@
         <v>16</v>
       </c>
       <c r="B133" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>20</v>
@@ -5781,14 +5763,14 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="8" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
@@ -5803,10 +5785,10 @@
         <v>16</v>
       </c>
       <c r="B134" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>20</v>
@@ -5817,14 +5799,14 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="8" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
@@ -5839,20 +5821,20 @@
         <v>16</v>
       </c>
       <c r="B135" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
@@ -5869,20 +5851,20 @@
         <v>16</v>
       </c>
       <c r="B136" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
@@ -5899,20 +5881,20 @@
         <v>16</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
@@ -5929,20 +5911,20 @@
         <v>16</v>
       </c>
       <c r="B138" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
@@ -5959,20 +5941,20 @@
         <v>16</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
@@ -5989,10 +5971,10 @@
         <v>16</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>20</v>
@@ -6003,14 +5985,14 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="8" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
@@ -6024,21 +6006,21 @@
       <c r="A141" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="8">
+      <c r="B141" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" s="8">
         <v>4</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
@@ -6054,11 +6036,11 @@
       <c r="A142" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="8">
         <v>4</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>20</v>
@@ -6069,14 +6051,14 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="8" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
@@ -6086,115 +6068,77 @@
       </c>
       <c r="P142" s="8"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="8" t="s">
-        <v>39</v>
+      <c r="H143" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="I143" s="9"/>
-      <c r="J143" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="K143" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="J143" s="8"/>
+      <c r="K143" s="7"/>
       <c r="L143" s="8" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="M143" s="8"/>
-      <c r="N143" s="8"/>
+      <c r="N143" s="13"/>
       <c r="O143" s="8">
-        <v>24725237</v>
-      </c>
-      <c r="P143" s="8"/>
-    </row>
-    <row r="144" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>27670383</v>
+      </c>
+      <c r="P143" s="13"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="12" t="s">
-        <v>39</v>
+      <c r="H144" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="I144" s="9"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="7"/>
+      <c r="J144" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="L144" s="8" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="M144" s="8"/>
-      <c r="N144" s="13"/>
-      <c r="O144" s="8">
-        <v>27670383</v>
-      </c>
-      <c r="P144" s="13"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I145" s="9"/>
-      <c r="J145" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K145" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="L145" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="P145" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="P144" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/contributed/190612 OBV TABLE.xlsx
+++ b/tabular/contributed/190612 OBV TABLE.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="560" windowWidth="41640" windowHeight="28240"/>
+    <workbookView xWindow="8240" yWindow="460" windowWidth="41640" windowHeight="25240"/>
   </bookViews>
   <sheets>
     <sheet name="OBV" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OBV!$H$1:$H$144</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="210">
   <si>
     <t>gene</t>
   </si>
@@ -56,9 +59,6 @@
     <t>vitroOrVivo</t>
   </si>
   <si>
-    <t>ec50 fold change</t>
-  </si>
-  <si>
     <t>clinicalTrialName</t>
   </si>
   <si>
@@ -143,9 +143,6 @@
     <t>OMB</t>
   </si>
   <si>
-    <t>PrOD/RBV</t>
-  </si>
-  <si>
     <t>case report</t>
   </si>
   <si>
@@ -209,21 +206,9 @@
     <t xml:space="preserve">L31M </t>
   </si>
   <si>
-    <t>real world</t>
-  </si>
-  <si>
     <t>non cirrh</t>
   </si>
   <si>
-    <t>PrOD</t>
-  </si>
-  <si>
-    <t>PEARL III, IV</t>
-  </si>
-  <si>
-    <t>PrOD+/-RBV</t>
-  </si>
-  <si>
     <t>8965</t>
   </si>
   <si>
@@ -347,15 +332,9 @@
     <t>AVIATOR</t>
   </si>
   <si>
-    <t xml:space="preserve">PrO </t>
-  </si>
-  <si>
     <t>non cirrhotic and cirrhotic; TE</t>
   </si>
   <si>
-    <t xml:space="preserve">PEARL I </t>
-  </si>
-  <si>
     <t>4d</t>
   </si>
   <si>
@@ -380,9 +359,6 @@
     <t>A92E</t>
   </si>
   <si>
-    <t>M12-536 &amp; GIFT-I</t>
-  </si>
-  <si>
     <t>TN&amp;TE: non cirrhotic and cirrhotic</t>
   </si>
   <si>
@@ -410,78 +386,33 @@
     <t>TN &amp; TE; noncirrhotic and cirrhotic</t>
   </si>
   <si>
-    <t>PrOD +/- RBV</t>
-  </si>
-  <si>
-    <t>PrOD+RBV</t>
-  </si>
-  <si>
     <t>TE, cirrhotic</t>
   </si>
   <si>
-    <t>Sapphire II, Turquoise II, Pearl IV</t>
-  </si>
-  <si>
     <t>Pooled</t>
   </si>
   <si>
-    <t>Sarrazin, EASL Paris, 23-24 Sep, 2016</t>
-  </si>
-  <si>
     <t>P58L</t>
   </si>
   <si>
     <t>AGATE-I</t>
   </si>
   <si>
-    <t>PrO</t>
-  </si>
-  <si>
-    <t>PrO+RBV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapphire II </t>
-  </si>
-  <si>
     <t>TE, non cirrhotic</t>
   </si>
   <si>
-    <t>Turquoise I</t>
-  </si>
-  <si>
     <t xml:space="preserve">TE, cirrhotic </t>
   </si>
   <si>
     <t>TE, cirrhotic and noncirrhoitc</t>
   </si>
   <si>
-    <t>real world, retrospective</t>
-  </si>
-  <si>
-    <t>50 - &gt;1000</t>
-  </si>
-  <si>
     <t>20-100</t>
   </si>
   <si>
-    <t>20- &gt;100</t>
-  </si>
-  <si>
-    <t>PEARL IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrOD </t>
-  </si>
-  <si>
-    <t>PrOD no RBV</t>
-  </si>
-  <si>
     <t>TN; no cirrhosis</t>
   </si>
   <si>
-    <t>Phase 2</t>
-  </si>
-  <si>
     <t>28V</t>
   </si>
   <si>
@@ -611,9 +542,6 @@
     <t>28T+58P</t>
   </si>
   <si>
-    <t>9SN</t>
-  </si>
-  <si>
     <t>28V+30K</t>
   </si>
   <si>
@@ -672,13 +600,76 @@
   </si>
   <si>
     <t>30G</t>
+  </si>
+  <si>
+    <t>Case report*</t>
+  </si>
+  <si>
+    <t>Real world*</t>
+  </si>
+  <si>
+    <t>Pooled1</t>
+  </si>
+  <si>
+    <t>PEARL-I</t>
+  </si>
+  <si>
+    <t>Pooled3</t>
+  </si>
+  <si>
+    <t>Pooled2</t>
+  </si>
+  <si>
+    <t>SAPPHIRE-II</t>
+  </si>
+  <si>
+    <t>TURQUOISE-I</t>
+  </si>
+  <si>
+    <t>Retrospective real world study*</t>
+  </si>
+  <si>
+    <t>PEARL-IV</t>
+  </si>
+  <si>
+    <t>M12-536</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_DSV_RBV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTV_r_OBV_DSV </t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_DSV;PTV_r_OBV_DSV_RBV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_DSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTV_r_OBV </t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_RBV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV</t>
+  </si>
+  <si>
+    <t>EASL_2016_Abs_LBP503</t>
+  </si>
+  <si>
+    <t>ec50</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +690,29 @@
       <sz val="11"/>
       <color rgb="FF575757"/>
       <name val="Calibri  "/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -752,10 +766,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -798,8 +818,20 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1112,11 +1144,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1131,7 +1164,7 @@
     <col min="8" max="8" width="11" style="7" customWidth="1"/>
     <col min="9" max="9" width="15.1640625" style="15" customWidth="1"/>
     <col min="10" max="10" width="29.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="33.5" style="7" customWidth="1"/>
     <col min="12" max="12" width="21.83203125" style="7" customWidth="1"/>
     <col min="13" max="13" width="16.5" style="7" customWidth="1"/>
     <col min="14" max="14" width="21.83203125" style="7" customWidth="1"/>
@@ -1166,69 +1199,69 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C2" s="8">
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="8" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O2" s="10">
         <v>30882744</v>
@@ -1238,38 +1271,38 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C3" s="8">
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="8" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -1279,25 +1312,25 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
@@ -1310,25 +1343,25 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
@@ -1341,25 +1374,25 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
@@ -1372,25 +1405,25 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
@@ -1403,25 +1436,25 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
@@ -1434,25 +1467,25 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
@@ -1465,25 +1498,25 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
@@ -1496,25 +1529,25 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
@@ -1527,25 +1560,25 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
@@ -1558,25 +1591,25 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
@@ -1589,25 +1622,25 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
@@ -1620,25 +1653,25 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9"/>
@@ -1651,25 +1684,25 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
@@ -1682,25 +1715,25 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9"/>
@@ -1713,25 +1746,25 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
@@ -1744,25 +1777,25 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
@@ -1775,25 +1808,25 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
@@ -1808,36 +1841,36 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="8" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O21" s="11">
         <v>30485638</v>
@@ -1847,36 +1880,36 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="8" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
@@ -1888,36 +1921,36 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="8" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -1929,38 +1962,40 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="K24" s="8" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O24" s="11">
         <v>29575060</v>
@@ -1970,36 +2005,36 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="8" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M25" s="8"/>
       <c r="O25" s="11">
@@ -2010,36 +2045,36 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="8" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26" s="8"/>
       <c r="O26" s="11">
@@ -2048,25 +2083,25 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2079,25 +2114,25 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2110,25 +2145,25 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2141,25 +2176,25 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2172,25 +2207,25 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2203,25 +2238,25 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2234,25 +2269,25 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2265,25 +2300,25 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2296,25 +2331,25 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2327,25 +2362,25 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2358,25 +2393,25 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -2389,25 +2424,25 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2420,25 +2455,25 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2451,25 +2486,25 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2482,25 +2517,25 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2513,25 +2548,25 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2544,25 +2579,25 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2575,25 +2610,25 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2606,25 +2641,25 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2637,25 +2672,25 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2668,25 +2703,25 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -2699,25 +2734,25 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="6"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2730,25 +2765,25 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2761,25 +2796,25 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2792,25 +2827,25 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2823,25 +2858,25 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2854,25 +2889,25 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2885,25 +2920,25 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -2916,25 +2951,25 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -2947,25 +2982,25 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -2978,25 +3013,25 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3009,25 +3044,25 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3040,25 +3075,25 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3071,25 +3106,25 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3102,25 +3137,25 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3133,25 +3168,25 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3164,25 +3199,25 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -3195,25 +3230,25 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -3226,25 +3261,25 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="6"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3257,25 +3292,25 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3288,25 +3323,25 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="6"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3319,25 +3354,25 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3352,36 +3387,36 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F69" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -3393,36 +3428,36 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D70" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
@@ -3434,36 +3469,36 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F71" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
@@ -3475,36 +3510,36 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D72" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
@@ -3516,36 +3551,36 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F73" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -3557,36 +3592,36 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D74" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
@@ -3598,36 +3633,36 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="D75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
@@ -3639,36 +3674,36 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D76" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -3680,36 +3715,36 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="8" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
@@ -3720,36 +3755,36 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="8" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
@@ -3760,36 +3795,36 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F79" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="8" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
@@ -3798,31 +3833,31 @@
       </c>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -3834,31 +3869,31 @@
       </c>
       <c r="P80" s="8"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -3870,31 +3905,31 @@
       </c>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -3906,31 +3941,31 @@
       </c>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -3944,36 +3979,36 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="8" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K84" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L84" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
@@ -3984,36 +4019,36 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F85" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="8" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K85" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L85" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
@@ -4024,36 +4059,36 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="8" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K86" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L86" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
@@ -4064,36 +4099,36 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F87" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="8" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K87" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L87" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
@@ -4104,34 +4139,34 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="8" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
@@ -4142,36 +4177,36 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="8" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
@@ -4182,34 +4217,34 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="8" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
@@ -4220,34 +4255,34 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="8" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
@@ -4258,36 +4293,36 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
-      <c r="J92" s="8" t="s">
-        <v>116</v>
+      <c r="J92" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
@@ -4298,34 +4333,34 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D93" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
-      <c r="J93" s="8" t="s">
-        <v>116</v>
+      <c r="J93" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
@@ -4336,34 +4371,34 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
-      <c r="J94" s="8" t="s">
-        <v>116</v>
+      <c r="J94" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
@@ -4374,34 +4409,34 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
-      <c r="J95" s="8" t="s">
-        <v>116</v>
+      <c r="J95" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
@@ -4412,36 +4447,36 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
-      <c r="J96" s="8" t="s">
-        <v>116</v>
+      <c r="J96" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
@@ -4452,34 +4487,34 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
-      <c r="J97" s="8" t="s">
-        <v>116</v>
+      <c r="J97" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -4490,34 +4525,34 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
-      <c r="J98" s="8" t="s">
-        <v>116</v>
+      <c r="J98" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -4528,36 +4563,36 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
-      <c r="J99" s="8" t="s">
-        <v>116</v>
+      <c r="J99" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
@@ -4568,34 +4603,34 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
-      <c r="J100" s="8" t="s">
-        <v>116</v>
+      <c r="J100" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
@@ -4606,36 +4641,36 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
-      <c r="J101" s="8" t="s">
-        <v>116</v>
+      <c r="J101" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
@@ -4644,25 +4679,25 @@
       </c>
       <c r="P101" s="8"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -4674,25 +4709,25 @@
       </c>
       <c r="P102" s="8"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -4704,25 +4739,25 @@
       </c>
       <c r="P103" s="8"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -4734,25 +4769,25 @@
       </c>
       <c r="P104" s="8"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -4764,25 +4799,25 @@
       </c>
       <c r="P105" s="8"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -4794,25 +4829,25 @@
       </c>
       <c r="P106" s="8"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -4824,25 +4859,25 @@
       </c>
       <c r="P107" s="8"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -4854,25 +4889,25 @@
       </c>
       <c r="P108" s="8"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -4884,25 +4919,25 @@
       </c>
       <c r="P109" s="8"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -4914,25 +4949,25 @@
       </c>
       <c r="P110" s="8"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -4944,25 +4979,25 @@
       </c>
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -4974,25 +5009,25 @@
       </c>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -5006,36 +5041,36 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F114" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
@@ -5046,36 +5081,36 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
@@ -5086,354 +5121,354 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K116" s="9" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M116" s="8"/>
       <c r="N116" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="P116" s="8"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D117" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K117" s="9" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M117" s="8"/>
       <c r="N117" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="P117" s="8"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K118" s="9" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M118" s="8"/>
       <c r="N118" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="P118" s="8"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D119" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K119" s="9" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M119" s="8"/>
       <c r="N119" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="P119" s="8"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D120" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K120" s="9" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M120" s="8"/>
       <c r="N120" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="P120" s="8"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D121" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K121" s="9" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M121" s="8"/>
       <c r="N121" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="P121" s="8"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D122" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K122" s="9" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M122" s="8"/>
       <c r="N122" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="P122" s="8"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D123" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="M123" s="8"/>
       <c r="N123" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="P123" s="8"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
@@ -5444,36 +5479,36 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
@@ -5484,34 +5519,34 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="8" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
@@ -5522,34 +5557,34 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D127" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="8" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
@@ -5560,34 +5595,34 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D128" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="8" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
@@ -5598,34 +5633,34 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I129" s="9"/>
-      <c r="J129" s="8" t="s">
-        <v>149</v>
+      <c r="J129" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
@@ -5636,34 +5671,34 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C130" s="8">
         <v>2</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="8" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
@@ -5674,31 +5709,31 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D131" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="8" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
@@ -5710,31 +5745,31 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D132" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="8" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
@@ -5746,31 +5781,31 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D133" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="8" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
@@ -5782,31 +5817,31 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D134" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="8" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
@@ -5816,25 +5851,25 @@
       </c>
       <c r="P134" s="8"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
@@ -5846,25 +5881,25 @@
       </c>
       <c r="P135" s="8"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
@@ -5876,25 +5911,25 @@
       </c>
       <c r="P136" s="8"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
@@ -5906,25 +5941,25 @@
       </c>
       <c r="P137" s="8"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
@@ -5938,26 +5973,32 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
       <c r="N139" s="8"/>
@@ -5966,34 +6007,28 @@
       </c>
       <c r="P139" s="8"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C140" s="8">
+        <v>4</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I140" s="9"/>
-      <c r="J140" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K140" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
@@ -6002,12 +6037,12 @@
       </c>
       <c r="P140" s="8"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C141" s="8">
         <v>4</v>
@@ -6017,10 +6052,10 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
@@ -6034,31 +6069,31 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C142" s="8">
         <v>4</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="8" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
@@ -6070,30 +6105,34 @@
     </row>
     <row r="143" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c r="H143" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I143" s="9"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="7"/>
+      <c r="J143" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>200</v>
+      </c>
       <c r="L143" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M143" s="8"/>
       <c r="N143" s="13"/>
@@ -6104,43 +6143,50 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D144" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="8" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="M144" s="8"/>
       <c r="N144" s="8"/>
       <c r="O144" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="P144" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H144">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="vivo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tabular/contributed/190612 OBV TABLE.xlsx
+++ b/tabular/contributed/190612 OBV TABLE.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="460" windowWidth="41640" windowHeight="25240"/>
+    <workbookView xWindow="11880" yWindow="1020" windowWidth="41640" windowHeight="25240"/>
   </bookViews>
   <sheets>
     <sheet name="OBV" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OBV!$H$1:$H$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OBV!$H$1:$H$145</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="210">
   <si>
     <t>gene</t>
   </si>
@@ -1144,12 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K145" sqref="K145"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1312,7 +1311,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1343,7 +1342,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1374,7 +1373,7 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1404,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1436,7 +1435,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1467,7 +1466,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1498,7 +1497,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -1529,7 +1528,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -1560,7 +1559,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1590,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1622,7 +1621,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1653,7 +1652,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1684,7 +1683,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1714,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1746,7 +1745,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1776,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -1808,7 +1807,7 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -2083,7 +2082,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -2114,7 +2113,7 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
@@ -2145,7 +2144,7 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -2176,7 +2175,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2206,7 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -2238,7 +2237,7 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
@@ -2269,7 +2268,7 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
@@ -2300,7 +2299,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
@@ -2331,7 +2330,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -2362,7 +2361,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>15</v>
       </c>
@@ -2393,7 +2392,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
@@ -2424,7 +2423,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
@@ -2455,7 +2454,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>15</v>
       </c>
@@ -2486,7 +2485,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>15</v>
       </c>
@@ -2517,7 +2516,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>15</v>
       </c>
@@ -2548,7 +2547,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>15</v>
       </c>
@@ -2579,7 +2578,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>15</v>
       </c>
@@ -2610,7 +2609,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>15</v>
       </c>
@@ -2641,7 +2640,7 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>15</v>
       </c>
@@ -2672,7 +2671,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>15</v>
       </c>
@@ -2703,7 +2702,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>15</v>
       </c>
@@ -2734,7 +2733,7 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="6"/>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>15</v>
       </c>
@@ -2765,7 +2764,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>15</v>
       </c>
@@ -2796,7 +2795,7 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2826,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>15</v>
       </c>
@@ -2858,7 +2857,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>15</v>
       </c>
@@ -2889,7 +2888,7 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>15</v>
       </c>
@@ -2920,7 +2919,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>15</v>
       </c>
@@ -2951,7 +2950,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>15</v>
       </c>
@@ -2982,7 +2981,7 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>15</v>
       </c>
@@ -3013,7 +3012,7 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>15</v>
       </c>
@@ -3044,7 +3043,7 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>15</v>
       </c>
@@ -3075,7 +3074,7 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>15</v>
       </c>
@@ -3106,7 +3105,7 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>15</v>
       </c>
@@ -3137,7 +3136,7 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>15</v>
       </c>
@@ -3168,7 +3167,7 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>15</v>
       </c>
@@ -3199,7 +3198,7 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>15</v>
       </c>
@@ -3230,7 +3229,7 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>15</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="6"/>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>15</v>
       </c>
@@ -3292,7 +3291,7 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>15</v>
       </c>
@@ -3323,7 +3322,7 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="6"/>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>15</v>
       </c>
@@ -3354,7 +3353,7 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>15</v>
       </c>
@@ -3833,7 +3832,7 @@
       </c>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>15</v>
       </c>
@@ -3869,7 +3868,7 @@
       </c>
       <c r="P80" s="8"/>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>15</v>
       </c>
@@ -3905,7 +3904,7 @@
       </c>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>15</v>
       </c>
@@ -3941,7 +3940,7 @@
       </c>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>15</v>
       </c>
@@ -4679,7 +4678,7 @@
       </c>
       <c r="P101" s="8"/>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>15</v>
       </c>
@@ -4709,7 +4708,7 @@
       </c>
       <c r="P102" s="8"/>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>15</v>
       </c>
@@ -4739,7 +4738,7 @@
       </c>
       <c r="P103" s="8"/>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>15</v>
       </c>
@@ -4769,7 +4768,7 @@
       </c>
       <c r="P104" s="8"/>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>15</v>
       </c>
@@ -4799,7 +4798,7 @@
       </c>
       <c r="P105" s="8"/>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>15</v>
       </c>
@@ -4829,7 +4828,7 @@
       </c>
       <c r="P106" s="8"/>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>15</v>
       </c>
@@ -4859,7 +4858,7 @@
       </c>
       <c r="P107" s="8"/>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>15</v>
       </c>
@@ -4889,7 +4888,7 @@
       </c>
       <c r="P108" s="8"/>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>15</v>
       </c>
@@ -4919,7 +4918,7 @@
       </c>
       <c r="P109" s="8"/>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>15</v>
       </c>
@@ -4949,7 +4948,7 @@
       </c>
       <c r="P110" s="8"/>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>15</v>
       </c>
@@ -4979,7 +4978,7 @@
       </c>
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>15</v>
       </c>
@@ -5009,7 +5008,7 @@
       </c>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>15</v>
       </c>
@@ -5851,7 +5850,7 @@
       </c>
       <c r="P134" s="8"/>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>15</v>
       </c>
@@ -5881,7 +5880,7 @@
       </c>
       <c r="P135" s="8"/>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>15</v>
       </c>
@@ -5911,12 +5910,12 @@
       </c>
       <c r="P136" s="8"/>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>16</v>
@@ -5941,15 +5940,15 @@
       </c>
       <c r="P137" s="8"/>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -5959,7 +5958,7 @@
         <v>37</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
@@ -5981,24 +5980,18 @@
       <c r="C139" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I139" s="9"/>
-      <c r="J139" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K139" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
       <c r="N139" s="8"/>
@@ -6007,28 +6000,34 @@
       </c>
       <c r="P139" s="8"/>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="8">
-        <v>4</v>
-      </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
+      <c r="C140" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
@@ -6037,12 +6036,12 @@
       </c>
       <c r="P140" s="8"/>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C141" s="8">
         <v>4</v>
@@ -6077,24 +6076,18 @@
       <c r="C142" s="8">
         <v>4</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I142" s="9"/>
-      <c r="J142" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K142" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
       <c r="N142" s="8"/>
@@ -6103,90 +6096,120 @@
       </c>
       <c r="P142" s="8"/>
     </row>
-    <row r="143" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>23</v>
+      <c r="B143" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C143" s="8">
+        <v>4</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="12" t="s">
+      <c r="H143" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K143" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L143" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L143" s="8"/>
       <c r="M143" s="8"/>
-      <c r="N143" s="13"/>
+      <c r="N143" s="8"/>
       <c r="O143" s="8">
-        <v>27670383</v>
-      </c>
-      <c r="P143" s="13"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+        <v>29146520</v>
+      </c>
+      <c r="P143" s="8"/>
+    </row>
+    <row r="144" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>16</v>
+      <c r="B144" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="8" t="s">
+      <c r="H144" s="12" t="s">
         <v>27</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L144" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M144" s="8"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="8">
+        <v>27670383</v>
+      </c>
+      <c r="P144" s="13"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K144" s="8" t="s">
+      <c r="K145" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L144" s="8" t="s">
+      <c r="L145" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="M144" s="8"/>
-      <c r="N144" s="8"/>
-      <c r="O144" s="8" t="s">
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="P144" s="8"/>
+      <c r="P145" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H144">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="vivo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="H1:H145"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
